--- a/arbiter_etl/data/spring2024/lookup/ArbiterMappings.xlsx
+++ b/arbiter_etl/data/spring2024/lookup/ArbiterMappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roxberry/Workspaces/SJSL/gotsport-toolbox/arbiter_etl/data/spring2024/lookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F882E1A-36BA-1348-B891-BBAC955B9D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A57019-7679-A048-BFB7-ADC7412C7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{560EA3F1-29A7-EA41-B41C-8BD96A0307DA}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{560EA3F1-29A7-EA41-B41C-8BD96A0307DA}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelsMap" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SitesMap!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SitesMap!$A$1:$F$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TeamsMap!$A$1:$C$1</definedName>
     <definedName name="Sites">[1]Sites!$A$1:$A$210</definedName>
     <definedName name="x">[2]Sites!$A$1:$A$214</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="729">
   <si>
     <t>U8</t>
   </si>
@@ -646,57 +646,27 @@
     <t>BURLINGTON COUNTY SA - Delanco Field of Dreams</t>
   </si>
   <si>
-    <t>BURLINGTON COUNTY SA - Doane Acad</t>
-  </si>
-  <si>
     <t>BURLINGTON TWP - PINEWALD AVE</t>
   </si>
   <si>
-    <t>CAPE - STONE HARBOR</t>
-  </si>
-  <si>
-    <t>CAPE - WILDWOOD/MAXWELL</t>
-  </si>
-  <si>
     <t>CAPE EX SOCCER COMPLEX At Ockie Wisting</t>
   </si>
   <si>
     <t>CHFC - DeCOU</t>
   </si>
   <si>
-    <t>CHFC -Johnson elementary school</t>
-  </si>
-  <si>
     <t>CHSC - CH WEST HS</t>
   </si>
   <si>
-    <t>CHSC - MUNICIPAL FIELD</t>
-  </si>
-  <si>
-    <t>CHSC - Rosa Middle School</t>
-  </si>
-  <si>
     <t>CHSC - UPPER CHAPEL TURF</t>
   </si>
   <si>
     <t>CINNAMINSON SC - MEMORIAL</t>
   </si>
   <si>
-    <t>CLAYTON  - WASHINGTON</t>
-  </si>
-  <si>
     <t>CLAYTON - BENTZ</t>
   </si>
   <si>
-    <t>COLLINGSWOOD SC- CAMDEN PREP</t>
-  </si>
-  <si>
-    <t>DELRAN - VERMES</t>
-  </si>
-  <si>
-    <t>Delran HS</t>
-  </si>
-  <si>
     <t>DEPTFORD SC</t>
   </si>
   <si>
@@ -709,24 +679,15 @@
     <t>EGG HARBOR - TONY CANALE</t>
   </si>
   <si>
-    <t>EWING-Municipal</t>
-  </si>
-  <si>
     <t>FRANKLIN TWP YOUTH COMPLEX</t>
   </si>
   <si>
-    <t>GATEWAY UTD - GATEWAY HIGH SCHOOL</t>
-  </si>
-  <si>
     <t>GATEWAY UTD. - LANGSTON FIELD</t>
   </si>
   <si>
     <t>GATEWAY UTD. - WESTVILLE</t>
   </si>
   <si>
-    <t>GATEWAY UTD. - WOODBURY HGTS-HELEN AVE</t>
-  </si>
-  <si>
     <t>HADD HGTS - DEVON</t>
   </si>
   <si>
@@ -736,21 +697,9 @@
     <t>HADDON TWP - RECCHINO FIELDS</t>
   </si>
   <si>
-    <t>HADDON TWP - VAN SCIVER SCHOOL</t>
-  </si>
-  <si>
-    <t>HADDON TWP - W COLLINGSWOOD HEIGHTS</t>
-  </si>
-  <si>
     <t>HADDONFIELD - CROWS WOODS</t>
   </si>
   <si>
-    <t>Hamilton Elite - William Davies Middle School</t>
-  </si>
-  <si>
-    <t>Hamilton YMCA #1</t>
-  </si>
-  <si>
     <t>HARRISON - William Wilt Soccer Complex</t>
   </si>
   <si>
@@ -763,39 +712,21 @@
     <t>MAINLAND - MEMORIAL PARK</t>
   </si>
   <si>
-    <t>MAINLAND - POPLAR AVE</t>
-  </si>
-  <si>
-    <t>Mainland Reg. HS</t>
-  </si>
-  <si>
     <t>MANTUA TWP</t>
   </si>
   <si>
     <t>MAPLE SHADE - TURF FIELD</t>
   </si>
   <si>
-    <t>MARLTON - CHEROKEE HS</t>
-  </si>
-  <si>
     <t>MARLTON - MEMORIAL</t>
   </si>
   <si>
     <t>MEDFORD - BENDE PARK</t>
   </si>
   <si>
-    <t>MEDFORD - FREEDOM PARK</t>
-  </si>
-  <si>
-    <t>MEDFORD SC - Hartford Crossings</t>
-  </si>
-  <si>
     <t>MEDFORD STRIKERS - ARK ROAD COMPLEX</t>
   </si>
   <si>
-    <t>Mercer County Park</t>
-  </si>
-  <si>
     <t>MILLVILLE SOCCER COMPLEX</t>
   </si>
   <si>
@@ -811,24 +742,9 @@
     <t>MOORESTOWN - SALEM RD/PRYOR PARK</t>
   </si>
   <si>
-    <t>Moorestown Upper Elementary School</t>
-  </si>
-  <si>
-    <t>NB- CHAROLOTTE ROGERS</t>
-  </si>
-  <si>
     <t>NB- MANSFIELD TOWNSHIP ELEMENTARY SCHOOL</t>
   </si>
   <si>
-    <t>NB- VETERAN'S PARK</t>
-  </si>
-  <si>
-    <t>NB-Helis Field - South</t>
-  </si>
-  <si>
-    <t>Ocean City High School Turf Field</t>
-  </si>
-  <si>
     <t>PAL-RIV - LEGION FIELD</t>
   </si>
   <si>
@@ -841,9 +757,6 @@
     <t>PENNSVILLE</t>
   </si>
   <si>
-    <t>PG-CP-PED 130</t>
-  </si>
-  <si>
     <t>PG-CP-PED- Carney's Point Rec Center</t>
   </si>
   <si>
@@ -853,30 +766,12 @@
     <t>PITMAN - Dell</t>
   </si>
   <si>
-    <t>PITMAN MIDDLE SCHOOL</t>
-  </si>
-  <si>
     <t>PITTSGROVE-GREEN BRANCH</t>
   </si>
   <si>
     <t>Rancocas Valley-LUMBERTON MUNICIPAL</t>
   </si>
   <si>
-    <t>Rancocas Vallley-HAINESPORT MUNICIPAL PARK</t>
-  </si>
-  <si>
-    <t>RUNNEMEDE YAA - Constitution Field</t>
-  </si>
-  <si>
-    <t>RUNNEMEDE YAA - Triton High School</t>
-  </si>
-  <si>
-    <t>SENECA - BUDDTOWN RD</t>
-  </si>
-  <si>
-    <t>SENECA - MUNICIPAL FIELD</t>
-  </si>
-  <si>
     <t>SENECA - STONEY CREEK FIELDS</t>
   </si>
   <si>
@@ -889,15 +784,6 @@
     <t>SW-Locke Avenue Park</t>
   </si>
   <si>
-    <t>TARKILL - Mancini Field</t>
-  </si>
-  <si>
-    <t>TARKILL - Parkview School</t>
-  </si>
-  <si>
-    <t>TARKILL - Yellin School</t>
-  </si>
-  <si>
     <t>TARKILL-STERLING HS</t>
   </si>
   <si>
@@ -910,18 +796,9 @@
     <t>UPPER TWP-Amanda's Field Complex</t>
   </si>
   <si>
-    <t>UPPER TWP-Old Tuckahoe Road</t>
-  </si>
-  <si>
-    <t>VINELAND - GITTONE  STADIUM TURF</t>
-  </si>
-  <si>
     <t>VINELAND SA</t>
   </si>
   <si>
-    <t>VINELAND SA - Cumberland County Technical</t>
-  </si>
-  <si>
     <t>VOORHEES-EASTERN HS</t>
   </si>
   <si>
@@ -931,33 +808,15 @@
     <t>W DEPTFORD-WD PARK</t>
   </si>
   <si>
-    <t>WASHINGTON TWP - Total Turf</t>
-  </si>
-  <si>
-    <t>WASHINGTON TWP- H.S.</t>
-  </si>
-  <si>
     <t>WASHINGTON TWP. - Levy Fields (Virtua)</t>
   </si>
   <si>
     <t>WASHINGTON TWP-WASH LAKE PARK</t>
   </si>
   <si>
-    <t>WATERFORD - BURNT MILL FIELD</t>
-  </si>
-  <si>
-    <t>WATERFORD-WATERFORD SPORTS COMPLEX</t>
-  </si>
-  <si>
-    <t>Willow Ridge</t>
-  </si>
-  <si>
     <t>WINSLOW TWP - PETER VOLPA</t>
   </si>
   <si>
-    <t>WINSLOW-DAVID IULIUCCI PARK</t>
-  </si>
-  <si>
     <t>WOODBURY</t>
   </si>
   <si>
@@ -985,9 +844,6 @@
     <t>U08</t>
   </si>
   <si>
-    <t>EGG HARBOR - MILLER ELEMENTARY SCHOOL</t>
-  </si>
-  <si>
     <t>Medford SC-Bob Bende Park</t>
   </si>
   <si>
@@ -1000,9 +856,6 @@
     <t>U-18</t>
   </si>
   <si>
-    <t>Lawrence - Centercourt</t>
-  </si>
-  <si>
     <t>Cohansey-CCTEC</t>
   </si>
   <si>
@@ -1039,9 +892,6 @@
     <t>Cohansey - Cumberland County Tech School</t>
   </si>
   <si>
-    <t>COLLINGSWOOD - Paul VI</t>
-  </si>
-  <si>
     <t>2011 Juniors Black</t>
   </si>
   <si>
@@ -1696,93 +1546,21 @@
     <t>Woodstown Soccer Fields</t>
   </si>
   <si>
-    <t>Collingswood SC-Knights Park</t>
-  </si>
-  <si>
-    <t>EGG HARBOR - Alder Avenue Middle School</t>
-  </si>
-  <si>
-    <t>EGG HARBOR - SLAYBAUGH SCHOOL</t>
-  </si>
-  <si>
-    <t>HADDONFIELD - Tatem Field</t>
-  </si>
-  <si>
-    <t>MOORESTOWN - WESLEY BISHOP PARK</t>
-  </si>
-  <si>
-    <t>WATERFORD ELEMENTARY SCHOOL</t>
-  </si>
-  <si>
     <t>SJFC - UPPER DEERFIELD RECREATION COMPLEX</t>
   </si>
   <si>
-    <t>CHSC - BORTONS MILL FIELD</t>
-  </si>
-  <si>
-    <t>CINNAMINSON SC-CINNAMINSON MIDDLE SCHOOL</t>
-  </si>
-  <si>
-    <t>Cohansey - Rowan College</t>
-  </si>
-  <si>
     <t>COLLINGSWOOD - CAMDEN ATHLETIC FACILITY</t>
   </si>
   <si>
-    <t>COLLINGSWOOD HS</t>
-  </si>
-  <si>
-    <t>Collingswood SC-Knights Park SB</t>
-  </si>
-  <si>
     <t>COSC- Oaklyn Public School</t>
   </si>
   <si>
-    <t>EPAA - MEMORIAL</t>
-  </si>
-  <si>
     <t>EPAA - Weimann Sports Complex</t>
   </si>
   <si>
-    <t>HADDONFIELD - Green Acres</t>
-  </si>
-  <si>
-    <t>HADDONFIELD - Haddonfield H.S. - Anniversary Field</t>
-  </si>
-  <si>
-    <t>HADDONFIELD - Haddonfield H.S. Main Turf</t>
-  </si>
-  <si>
-    <t>HADDONFIELD-SCOUT FIELD</t>
-  </si>
-  <si>
     <t>HAMMONTON - MOSS MILL RD PARK SOCCER COMPLEX</t>
   </si>
   <si>
-    <t>Medford Shawnee HS</t>
-  </si>
-  <si>
-    <t>MLU-ELBO LANE</t>
-  </si>
-  <si>
-    <t>MLU-MEMORIAL TURF FIELD</t>
-  </si>
-  <si>
-    <t>NB Civic Club Park Field #4</t>
-  </si>
-  <si>
-    <t>Rancocas Valley-Bryan Freeman Park</t>
-  </si>
-  <si>
-    <t>RANCOCAS VALLEY-Westampton Sports Complex</t>
-  </si>
-  <si>
-    <t>Seneca HS</t>
-  </si>
-  <si>
-    <t>WASHINGTON TWP SC-COUNTY HOUSE SOCCER COMPLEX</t>
-  </si>
-  <si>
     <t>WATERFORD TWP-LOUDEN FIRE HALL/THERMOCOOL</t>
   </si>
   <si>
@@ -2404,21 +2182,12 @@
     <t>Wash Twp-Washington Lake Park</t>
   </si>
   <si>
-    <t>DELRAN-Delran Community Park</t>
-  </si>
-  <si>
     <t>DELRAN-DEUTSCH FIELD</t>
   </si>
   <si>
-    <t>MERCHANTVILLE - WILLOW AVE</t>
-  </si>
-  <si>
     <t>NB Georgetown Park</t>
   </si>
   <si>
-    <t>PENNSAUKEN MIDDLE SCHOOL</t>
-  </si>
-  <si>
     <t>Audubon Soccer Youth Association-Audubon Park</t>
   </si>
   <si>
@@ -2429,6 +2198,42 @@
   </si>
   <si>
     <t>MARLTON - Willow Ridge Soccer Fields</t>
+  </si>
+  <si>
+    <t>Mainland-Atlantic Christian School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Burlington - Mansfield Georgetown </t>
+  </si>
+  <si>
+    <t>HADDON TWP SC-HOMESTEAD YOUTH ASSOCIATION</t>
+  </si>
+  <si>
+    <t>Cinnaminson SC - Wood Park</t>
+  </si>
+  <si>
+    <t>Waterford-Ritter Park</t>
+  </si>
+  <si>
+    <t>Pitman Dell Field</t>
+  </si>
+  <si>
+    <t>MLU-Lenape High School Stadium Turf</t>
+  </si>
+  <si>
+    <t>CINNAMINSON SC- Wood Park</t>
+  </si>
+  <si>
+    <t>HADDON TWP-Homestead Youth Association</t>
+  </si>
+  <si>
+    <t>MAINLAND-Atlantic Christian School</t>
+  </si>
+  <si>
+    <t>MLU-LENAPE HS TURF FIELD</t>
+  </si>
+  <si>
+    <t>WATERFORD SC-RITTER FIELD</t>
   </si>
 </sst>
 </file>
@@ -2494,7 +2299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2503,12 +2308,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2535,6 +2349,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Games"/>
       <sheetName val="Partners"/>
@@ -2592,751 +2409,811 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>BERLIN SC - FRANKLIN FIELDS</v>
+            <v>BARRINGTON-DEERE FIELD</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>BORDENTOWN - FRIENDSHIP FIELDS</v>
+            <v>BARRINGTON-WOODLAND SCHOOL</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>BURLINGTON COUNTY SA - Delanco Field of Dreams</v>
+            <v>BERLIN SC - FRANKLIN FIELDS</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>BURLINGTON COUNTY SA - Doane Acad</v>
+            <v>BORDENTOWN - FRIENDSHIP FIELDS</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>BURLINGTON TWP - PINEWALD AVE</v>
+            <v>BURLINGTON COUNTY SA - Delanco Field of Dreams</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>CAPE - STONE HARBOR</v>
+            <v>BURLINGTON COUNTY SA - Doane Acad</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>CAPE - WILDWOOD/MAXWELL</v>
+            <v>BURLINGTON TWP - PINEWALD AVE</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>CAPE EX SOCCER COMPLEX At Ockie Wisting</v>
+            <v>CAPE - STONE HARBOR</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>CHFC - DeCOU</v>
+            <v>CAPE - WILDWOOD/MAXWELL</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>CHFC -Johnson elementary school</v>
+            <v>CAPE EX SOCCER COMPLEX At Ockie Wisting</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>CHSC - BORTONS MILL FIELD</v>
+            <v>CHFC - DeCOU</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>CHSC - CH WEST HS</v>
+            <v>CHFC -Johnson elementary school</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>CHSC - MUNICIPAL FIELD</v>
+            <v>CHSC - BORTONS MILL FIELD</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>CHSC - Rosa Middle School</v>
+            <v>CHSC - CH WEST HS</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>CHSC - UPPER CHAPEL TURF</v>
+            <v>CHSC - MUNICIPAL FIELD</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>CINNAMINSON SC - MEMORIAL</v>
+            <v>CHSC - Rosa Middle School</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>CINNAMINSON SC-CINNAMINSON MIDDLE SCHOOL</v>
+            <v>CHSC - UPPER CHAPEL TURF</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>CLAYTON  - WASHINGTON</v>
+            <v>CINNAMINSON SC - MEMORIAL</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>CLAYTON - BENTZ</v>
+            <v>CINNAMINSON SC- Wood Park</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Cohansey - Cumberland County Tech School</v>
+            <v>CINNAMINSON SC-CINNAMINSON MIDDLE SCHOOL</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Cohansey - Rowan College</v>
+            <v>CLAYTON  - WASHINGTON</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>COLLINGSWOOD - CAMDEN ATHLETIC FACILITY</v>
+            <v>CLAYTON - BENTZ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>COLLINGSWOOD - Paul VI</v>
+            <v>Cohansey - Cumberland County Tech School</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>COLLINGSWOOD HS</v>
+            <v>Cohansey - Rowan College</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>COLLINGSWOOD SC- CAMDEN PREP</v>
+            <v>COLLINGSWOOD - CAMDEN ATHLETIC FACILITY</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Collingswood SC-Knights Park</v>
+            <v>COLLINGSWOOD - Paul VI</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Collingswood SC-Knights Park SB</v>
+            <v>COLLINGSWOOD HS</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>COSC- Oaklyn Public School</v>
+            <v>COLLINGSWOOD SC- CAMDEN PREP</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>DELRAN - VERMES</v>
+            <v>Collingswood SC-Knights Park</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Delran HS</v>
+            <v>Collingswood SC-Knights Park SB</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>DELRAN-Delran Community Park</v>
+            <v>COSC- Oaklyn Public School</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>DELRAN-DEUTSCH FIELD</v>
+            <v>DELRAN - VERMES</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>DEPTFORD SC</v>
+            <v>Delran HS</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>E GREENWICH - THOMPSON FAMILY PARK</v>
+            <v>Delran Middle School</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>EGG HARBOR - Alder Avenue Middle School</v>
+            <v>DELRAN-Delran Community Park</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>EGG HARBOR - BARGAINTOWN</v>
+            <v>DELRAN-DEUTSCH FIELD</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>EGG HARBOR - MILLER ELEMENTARY SCHOOL</v>
+            <v>DEPTFORD SC</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>EGG HARBOR - SLAYBAUGH SCHOOL</v>
+            <v>E GREENWICH - Kingsway High School</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>EGG HARBOR - TONY CANALE</v>
+            <v>E GREENWICH - THOMPSON FAMILY PARK</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>EPAA - MEMORIAL</v>
+            <v>EGG HARBOR - Alder Avenue Middle School</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>EPAA - Weimann Sports Complex</v>
+            <v>EGG HARBOR - BARGAINTOWN</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>EWING-Municipal</v>
+            <v>EGG HARBOR - MILLER ELEMENTARY SCHOOL</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>FRANKLIN TWP YOUTH COMPLEX</v>
+            <v>EGG HARBOR - SLAYBAUGH SCHOOL</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>GATEWAY UTD - GATEWAY HIGH SCHOOL</v>
+            <v>EGG HARBOR - TONY CANALE</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>GATEWAY UTD. - LANGSTON FIELD</v>
+            <v>EPAA - MEMORIAL</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>GATEWAY UTD. - WESTVILLE</v>
+            <v>EPAA - Weimann Sports Complex</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>GATEWAY UTD. - WOODBURY HGTS-HELEN AVE</v>
+            <v>EWING-Municipal</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>HADD HGTS - DEVON</v>
+            <v>FRANKLIN TWP YOUTH COMPLEX</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>HADDON TWP - CRYSTAL LAKE</v>
+            <v>GATEWAY UTD - GATEWAY HIGH SCHOOL</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>HADDON TWP - RECCHINO FIELDS</v>
+            <v>GATEWAY UTD. - LANGSTON FIELD</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>HADDON TWP - VAN SCIVER SCHOOL</v>
+            <v>GATEWAY UTD. - WESTVILLE</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>HADDON TWP - W COLLINGSWOOD HEIGHTS</v>
+            <v>GATEWAY UTD. - WOODBURY HGTS-HELEN AVE</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>HADDONFIELD - CROWS WOODS</v>
+            <v>HADD HGTS - DEVON</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>HADDONFIELD - Green Acres</v>
+            <v>HADDON TWP - CRYSTAL LAKE</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>HADDONFIELD - Haddonfield H.S. - Anniversary Field</v>
+            <v>HADDON TWP - RECCHINO FIELDS</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>HADDONFIELD - Haddonfield H.S. Main Turf</v>
+            <v>HADDON TWP - VAN SCIVER SCHOOL</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>HADDONFIELD - Tatem Field</v>
+            <v>HADDON TWP - W COLLINGSWOOD HEIGHTS</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>HADDONFIELD-SCOUT FIELD</v>
+            <v>HADDON TWP-Homestead Youth Association</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Hamilton Elite - William Davies Middle School</v>
+            <v>HADDONFIELD - CROWS WOODS</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Hamilton YMCA #1</v>
+            <v>HADDONFIELD - Green Acres</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>HAMMONTON - MOSS MILL RD PARK SOCCER COMPLEX</v>
+            <v>HADDONFIELD - Haddonfield H.S. - Anniversary Field</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>HARRISON - William Wilt Soccer Complex</v>
+            <v>HADDONFIELD - Haddonfield H.S. Main Turf</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>HIGHLAND - GLOUCESTER TWP PARK</v>
+            <v>HADDONFIELD - Tatem Field</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Lawrence - Centercourt</v>
+            <v>HADDONFIELD-SCOUT FIELD</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>LOGAN - TWP LINE</v>
+            <v>Hamilton Elite - William Davies Middle School</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>MAINLAND - MEMORIAL PARK</v>
+            <v>Hamilton YMCA #1</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>MAINLAND - POPLAR AVE</v>
+            <v>HAMMONTON - MOSS MILL RD PARK SOCCER COMPLEX</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Mainland Reg. HS</v>
+            <v>HARRISON - William Wilt Soccer Complex</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>MANTUA TWP</v>
+            <v>HIGHLAND - GLOUCESTER TWP PARK</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>MAPLE SHADE - TURF FIELD</v>
+            <v>Lawrence - Centercourt</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>MARLTON - CHEROKEE HS</v>
+            <v>Lenape HS</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>MARLTON - MEMORIAL</v>
+            <v>LOGAN - TWP LINE</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Marlton Middle School</v>
+            <v>MAINLAND - MEMORIAL PARK</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>MEDFORD - BENDE PARK</v>
+            <v>MAINLAND - POPLAR AVE</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>MEDFORD - FREEDOM PARK</v>
+            <v>Mainland Reg. HS</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>MEDFORD SC - Hartford Crossings</v>
+            <v>MAINLAND-Atlantic Christian School</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Medford Shawnee HS</v>
+            <v>MANTUA TWP</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>MEDFORD STRIKERS - ARK ROAD COMPLEX</v>
+            <v>MAPLE SHADE - TURF FIELD</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Mercer County Park</v>
+            <v>MARLTON - CHEROKEE HS</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>MERCHANTVILLE - WILLOW AVE</v>
+            <v>MARLTON - Marlton Middle School</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>MILLVILLE SOCCER COMPLEX</v>
+            <v>MARLTON - MEMORIAL</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>MLU-ELBO LANE</v>
+            <v>MARLTON - Willow Ridge Soccer Fields</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>MLU-MEMORIAL TURF FIELD</v>
+            <v>MEDFORD - BENDE PARK</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>MLU-TROTTERS</v>
+            <v>MEDFORD - FREEDOM PARK</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>MONROE TWP - CORKERY LANE</v>
+            <v>MEDFORD SC - Hartford Crossings</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>MOORESTOWN - MEMORIAL FIELDS</v>
+            <v>Medford Shawnee HS</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>MOORESTOWN - SALEM RD/PRYOR PARK</v>
+            <v>MEDFORD STRIKERS - ARK ROAD COMPLEX</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>MOORESTOWN - WESLEY BISHOP PARK</v>
+            <v>Mercer County Park</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>Moorestown Upper Elementary School</v>
+            <v>MERCHANTVILLE - WILLOW AVE</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>NB- CHAROLOTTE ROGERS</v>
+            <v>MILLVILLE SOCCER COMPLEX</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>NB Civic Club Park Field #4</v>
+            <v>MLU-ELBO LANE</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>NB Georgetown Park</v>
+            <v>MLU-LENAPE HS TURF FIELD</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>NB- MANSFIELD TOWNSHIP ELEMENTARY SCHOOL</v>
+            <v>MLU-MEMORIAL TURF FIELD</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>NB- VETERAN'S PARK</v>
+            <v>MLU-TROTTERS</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>NB-Helis Field - South</v>
+            <v>MONROE TWP - CORKERY LANE</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Ocean City High School Turf Field</v>
+            <v>MOORESTOWN - MEMORIAL FIELDS</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>PAL RIV - Riverton Park</v>
+            <v>MOORESTOWN - SALEM RD/PRYOR PARK</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>PAL-RIV - LEGION FIELD</v>
+            <v>MOORESTOWN - WESLEY BISHOP PARK</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>PEMBERTON - HIGH SCHOOL</v>
+            <v>Moorestown Upper Elementary School</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>Pennsauken Community Recreation Facility</v>
+            <v>NB- CHAROLOTTE ROGERS</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>PENNSAUKEN MIDDLE SCHOOL</v>
+            <v>NB Civic Club Park Field #4</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>PENNSVILLE</v>
+            <v>NB Georgetown Park</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>PG-CP-PED 130</v>
+            <v>NB- MANSFIELD TOWNSHIP ELEMENTARY SCHOOL</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>PG-CP-PED- Carney's Point Rec Center</v>
+            <v>NB- VETERAN'S PARK</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>PITMAN - ALCYON LAKE</v>
+            <v>NB-Helis Field - South</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>PITMAN - Dell</v>
+            <v>Ocean City High School Turf Field</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>PITMAN MIDDLE SCHOOL</v>
+            <v>PAL RIV - Riverton Park</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>PITTSGROVE-GREEN BRANCH</v>
+            <v>PAL-RIV - LEGION FIELD</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>Rancocas Valley-Bryan Freeman Park</v>
+            <v>PAL-RIV CHARLES STREET SCHOOL</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>Rancocas Valley-LUMBERTON MUNICIPAL</v>
+            <v>PEMBERTON - HIGH SCHOOL</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>RANCOCAS VALLEY-Westampton Sports Complex</v>
+            <v>Pennsauken Community Recreation Facility</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>Rancocas Vallley-HAINESPORT MUNICIPAL PARK</v>
+            <v>PENNSAUKEN MIDDLE SCHOOL</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>RUNNEMEDE YAA - Constitution Field</v>
+            <v>PENNSVILLE</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>RUNNEMEDE YAA - Triton High School</v>
+            <v>PG-CP-PED 130</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>SENECA - BUDDTOWN RD</v>
+            <v>PG-CP-PED- Carney's Point Rec Center</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>SENECA - MUNICIPAL FIELD</v>
+            <v>PITMAN - ALCYON LAKE</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>SENECA - STONEY CREEK FIELDS</v>
+            <v>PITMAN - Dell</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>Seneca HS</v>
+            <v>PITMAN MIDDLE SCHOOL</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>SJFC - UPPER DEERFIELD RECREATION COMPLEX</v>
+            <v>PITMAN-LAMBS ROAD</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>SOUTH HARRISON - STEWART</v>
+            <v>PITTSGROVE-GREEN BRANCH</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>SW-High Hill West Park</v>
+            <v>Rancocas Valley-Bryan Freeman Park</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>SW-Locke Avenue Park</v>
+            <v>Rancocas Valley-LUMBERTON MUNICIPAL</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>TARKILL - Mancini Field</v>
+            <v>RANCOCAS VALLEY-Westampton Sports Complex</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>TARKILL - Parkview School</v>
+            <v>Rancocas Vallley-HAINESPORT MUNICIPAL PARK</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>TARKILL - Yellin School</v>
+            <v>RUNNEMEDE YAA - Constitution Field</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>TARKILL-STERLING HS</v>
+            <v>RUNNEMEDE YAA - Triton High School</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>TBA</v>
+            <v>SENECA - BUDDTOWN RD</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>TBAA-VALLEY BROOK</v>
+            <v>SENECA - MUNICIPAL FIELD</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>UPPER TWP-Amanda's Field Complex</v>
+            <v>SENECA - STONEY CREEK FIELDS</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>UPPER TWP-Old Tuckahoe Road</v>
+            <v>Seneca HS</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>VINELAND - GITTONE  STADIUM TURF</v>
+            <v>SJFC - UPPER DEERFIELD RECREATION COMPLEX</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>VINELAND SA</v>
+            <v>SOUTH HARRISON - STEWART</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>VINELAND SA - Cumberland County Technical</v>
+            <v>SW-High Hill West Park</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>VOORHEES-EASTERN HS</v>
+            <v>SW-Locke Avenue Park</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>VOORHEES-Echelon Complex</v>
+            <v>TARKILL - Mancini Field</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>W DEPTFORD-WD PARK</v>
+            <v>TARKILL - Parkview School</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>WASHINGTON TWP - Total Turf</v>
+            <v>TARKILL - Yellin School</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>WASHINGTON TWP- H.S.</v>
+            <v>TARKILL-STERLING HS</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>WASHINGTON TWP SC-COUNTY HOUSE SOCCER COMPLEX</v>
+            <v>TBA</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>WASHINGTON TWP. - Levy Fields (Virtua)</v>
+            <v>TBAA-VALLEY BROOK</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>WASHINGTON TWP-WASH LAKE PARK</v>
+            <v>UPPER TWP-Amanda's Field Complex</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>WATERFORD - BURNT MILL FIELD</v>
+            <v>UPPER TWP-Old Tuckahoe Road</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>WATERFORD ELEMENTARY SCHOOL</v>
+            <v>VINELAND - GITTONE  STADIUM TURF</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>WATERFORD TWP-LOUDEN FIRE HALL/THERMOCOOL</v>
+            <v>VINELAND SA</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>WATERFORD-WATERFORD SPORTS COMPLEX</v>
+            <v>VINELAND SA - Cumberland County Technical</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>Willow Ridge</v>
+            <v>VOORHEES-EASTERN HS</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>WINSLOW TWP - PETER VOLPA</v>
+            <v>VOORHEES-Echelon Complex</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>WINSLOW-DAVID IULIUCCI PARK</v>
+            <v>W DEPTFORD-WD PARK</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>WOODBURY</v>
+            <v>WASHINGTON TWP - Total Turf</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
+            <v>WASHINGTON TWP- H.S.</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>WASHINGTON TWP SC-COUNTY HOUSE SOCCER COMPLEX</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>WASHINGTON TWP. - Levy Fields (Virtua)</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>WASHINGTON TWP-WASH LAKE PARK</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>WATERFORD - BURNT MILL FIELD</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>WATERFORD ELEMENTARY SCHOOL</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>WATERFORD SC-RITTER FIELD</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>WATERFORD TWP-LOUDEN FIRE HALL/THERMOCOOL</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>WATERFORD-WATERFORD SPORTS COMPLEX</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>WINSLOW TWP - PETER VOLPA</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>WINSLOW-DAVID IULIUCCI PARK</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>WOODBURY</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
             <v>WOODSTOWN</v>
           </cell>
         </row>
@@ -4858,7 +4735,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -4866,7 +4743,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -4874,10 +4751,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4897,7 +4774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF9935-9982-0644-9460-7D5D4166E7CF}">
   <dimension ref="A1:C540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -4921,223 +4798,223 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>586</v>
+        <v>512</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>513</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>516</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>593</v>
+        <v>519</v>
       </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>520</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>606</v>
+        <v>532</v>
       </c>
       <c r="B38" s="5"/>
     </row>
@@ -5155,85 +5032,85 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>607</v>
+        <v>533</v>
       </c>
       <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="B54" s="5"/>
     </row>
@@ -5245,7 +5122,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="B56" s="5"/>
     </row>
@@ -5263,91 +5140,91 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
       <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>613</v>
+        <v>539</v>
       </c>
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>614</v>
+        <v>540</v>
       </c>
       <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>616</v>
+        <v>542</v>
       </c>
       <c r="B73" s="5"/>
     </row>
@@ -5359,25 +5236,25 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>617</v>
+        <v>543</v>
       </c>
       <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>618</v>
+        <v>544</v>
       </c>
       <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>619</v>
+        <v>545</v>
       </c>
       <c r="B78" s="5"/>
     </row>
@@ -5401,7 +5278,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>620</v>
+        <v>546</v>
       </c>
       <c r="B82" s="5"/>
     </row>
@@ -5419,7 +5296,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>621</v>
+        <v>547</v>
       </c>
       <c r="B85" s="5"/>
     </row>
@@ -5431,19 +5308,19 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="B89" s="5"/>
     </row>
@@ -5467,7 +5344,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
       <c r="B93" s="5"/>
     </row>
@@ -5479,19 +5356,19 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>623</v>
+        <v>549</v>
       </c>
       <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="B97" s="5"/>
     </row>
@@ -5509,7 +5386,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="B100" s="5"/>
     </row>
@@ -5521,7 +5398,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>624</v>
+        <v>550</v>
       </c>
       <c r="B102" s="5"/>
     </row>
@@ -5533,7 +5410,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>625</v>
+        <v>551</v>
       </c>
       <c r="B104" s="5"/>
     </row>
@@ -5551,25 +5428,25 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>626</v>
+        <v>552</v>
       </c>
       <c r="B109" s="5"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B110" s="5"/>
     </row>
@@ -5587,97 +5464,97 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="B116" s="5"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>627</v>
+        <v>553</v>
       </c>
       <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>628</v>
+        <v>554</v>
       </c>
       <c r="B119" s="5"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
       <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>630</v>
+        <v>556</v>
       </c>
       <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>631</v>
+        <v>557</v>
       </c>
       <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>632</v>
+        <v>558</v>
       </c>
       <c r="B128" s="5"/>
     </row>
@@ -5695,7 +5572,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B131" s="5"/>
     </row>
@@ -5707,7 +5584,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>633</v>
+        <v>559</v>
       </c>
       <c r="B133" s="5"/>
     </row>
@@ -5719,13 +5596,13 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>634</v>
+        <v>560</v>
       </c>
       <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="B136" s="5"/>
     </row>
@@ -5737,13 +5614,13 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="B139" s="5"/>
     </row>
@@ -5755,7 +5632,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="B141" s="5"/>
     </row>
@@ -5767,43 +5644,43 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>636</v>
+        <v>562</v>
       </c>
       <c r="B143" s="5"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>637</v>
+        <v>563</v>
       </c>
       <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B145" s="5"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="B146" s="5"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>638</v>
+        <v>564</v>
       </c>
       <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>639</v>
+        <v>565</v>
       </c>
       <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B149" s="5"/>
     </row>
@@ -5815,25 +5692,25 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="B151" s="5"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>641</v>
+        <v>567</v>
       </c>
       <c r="B152" s="5"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>642</v>
+        <v>568</v>
       </c>
       <c r="B154" s="5"/>
     </row>
@@ -5869,7 +5746,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="B160" s="5"/>
     </row>
@@ -5881,7 +5758,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="B162" s="5"/>
     </row>
@@ -5899,13 +5776,13 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="B165" s="5"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>645</v>
+        <v>571</v>
       </c>
       <c r="B166" s="5"/>
     </row>
@@ -5929,13 +5806,13 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>646</v>
+        <v>572</v>
       </c>
       <c r="B170" s="5"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="B171" s="5"/>
     </row>
@@ -5947,7 +5824,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>647</v>
+        <v>573</v>
       </c>
       <c r="B173" s="5"/>
     </row>
@@ -5959,127 +5836,127 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>648</v>
+        <v>574</v>
       </c>
       <c r="B175" s="5"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="B176" s="5"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="B177" s="5"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="B178" s="5"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>650</v>
+        <v>576</v>
       </c>
       <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="B181" s="5"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="B182" s="5"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="B183" s="5"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B184" s="5"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B186" s="5"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>651</v>
+        <v>577</v>
       </c>
       <c r="B188" s="5"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
       <c r="B189" s="5"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="B190" s="5"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="B191" s="5"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="B192" s="5"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="B194" s="5"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="B195" s="5"/>
     </row>
@@ -6097,19 +5974,19 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>654</v>
+        <v>580</v>
       </c>
       <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>655</v>
+        <v>581</v>
       </c>
       <c r="B200" s="5"/>
     </row>
@@ -6127,13 +6004,13 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>656</v>
+        <v>582</v>
       </c>
       <c r="B204" s="5"/>
     </row>
@@ -6157,13 +6034,13 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="B208" s="5"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>657</v>
+        <v>583</v>
       </c>
       <c r="B209" s="5"/>
     </row>
@@ -6181,49 +6058,49 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B212" s="5"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="B213" s="5"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>658</v>
+        <v>584</v>
       </c>
       <c r="B214" s="5"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>659</v>
+        <v>585</v>
       </c>
       <c r="B215" s="5"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>660</v>
+        <v>586</v>
       </c>
       <c r="B216" s="5"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>661</v>
+        <v>587</v>
       </c>
       <c r="B218" s="5"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>662</v>
+        <v>588</v>
       </c>
       <c r="B219" s="5"/>
     </row>
@@ -6241,7 +6118,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="B222" s="5"/>
     </row>
@@ -6259,7 +6136,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B225" s="5"/>
     </row>
@@ -6271,145 +6148,145 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="B227" s="5"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="B228" s="5"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>664</v>
+        <v>590</v>
       </c>
       <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>665</v>
+        <v>591</v>
       </c>
       <c r="B230" s="5"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>666</v>
+        <v>592</v>
       </c>
       <c r="B231" s="5"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>667</v>
+        <v>593</v>
       </c>
       <c r="B232" s="5"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="B233" s="5"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B234" s="5"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>668</v>
+        <v>594</v>
       </c>
       <c r="B235" s="5"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="B236" s="5"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="B237" s="5"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="B238" s="5"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="B239" s="5"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="B240" s="5"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="B241" s="5"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="B242" s="5"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="B243" s="5"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="B244" s="5"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="B245" s="5"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="B246" s="5"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="B247" s="5"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="B248" s="5"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>669</v>
+        <v>595</v>
       </c>
       <c r="B249" s="5"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="B250" s="5"/>
     </row>
@@ -6421,13 +6298,13 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="B252" s="5"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>670</v>
+        <v>596</v>
       </c>
       <c r="B253" s="5"/>
     </row>
@@ -6457,37 +6334,37 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>671</v>
+        <v>597</v>
       </c>
       <c r="B258" s="5"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="B259" s="5"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>672</v>
+        <v>598</v>
       </c>
       <c r="B260" s="5"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>673</v>
+        <v>599</v>
       </c>
       <c r="B261" s="5"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="B262" s="5"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="B263" s="5"/>
     </row>
@@ -6499,13 +6376,13 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>674</v>
+        <v>600</v>
       </c>
       <c r="B265" s="5"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>675</v>
+        <v>601</v>
       </c>
       <c r="B266" s="5"/>
     </row>
@@ -6523,37 +6400,37 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>676</v>
+        <v>602</v>
       </c>
       <c r="B269" s="5"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="B270" s="5"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>677</v>
+        <v>603</v>
       </c>
       <c r="B271" s="5"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>678</v>
+        <v>604</v>
       </c>
       <c r="B272" s="5"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>679</v>
+        <v>605</v>
       </c>
       <c r="B273" s="5"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="B274" s="5"/>
     </row>
@@ -6565,13 +6442,13 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>680</v>
+        <v>606</v>
       </c>
       <c r="B276" s="5"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="B277" s="5"/>
     </row>
@@ -6601,97 +6478,97 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="B282" s="5"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>681</v>
+        <v>607</v>
       </c>
       <c r="B283" s="5"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="B284" s="5"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="B285" s="5"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="B286" s="5"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>682</v>
+        <v>608</v>
       </c>
       <c r="B287" s="5"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="B288" s="5"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="B289" s="5"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="B290" s="5"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>683</v>
+        <v>609</v>
       </c>
       <c r="B291" s="5"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="B292" s="5"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="B293" s="5"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="B295" s="5"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B296" s="5"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B297" s="5"/>
     </row>
@@ -6715,7 +6592,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B301" s="5"/>
     </row>
@@ -6727,31 +6604,31 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>684</v>
+        <v>610</v>
       </c>
       <c r="B303" s="5"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>685</v>
+        <v>611</v>
       </c>
       <c r="B304" s="5"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B305" s="5"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>686</v>
+        <v>612</v>
       </c>
       <c r="B306" s="5"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>687</v>
+        <v>613</v>
       </c>
       <c r="B307" s="5"/>
     </row>
@@ -6763,13 +6640,13 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="B309" s="5"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>688</v>
+        <v>614</v>
       </c>
       <c r="B310" s="5"/>
     </row>
@@ -6781,7 +6658,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="B312" s="5"/>
     </row>
@@ -6793,49 +6670,49 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="B314" s="5"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>689</v>
+        <v>615</v>
       </c>
       <c r="B315" s="5"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="B316" s="5"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>690</v>
+        <v>616</v>
       </c>
       <c r="B317" s="5"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>691</v>
+        <v>617</v>
       </c>
       <c r="B318" s="5"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="B319" s="5"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
       <c r="B320" s="5"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>693</v>
+        <v>619</v>
       </c>
       <c r="B321" s="5"/>
     </row>
@@ -6847,7 +6724,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="B323" s="5"/>
     </row>
@@ -6859,67 +6736,67 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>695</v>
+        <v>621</v>
       </c>
       <c r="B325" s="5"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="B326" s="5"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>696</v>
+        <v>622</v>
       </c>
       <c r="B327" s="5"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
       <c r="B328" s="5"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>698</v>
+        <v>624</v>
       </c>
       <c r="B329" s="5"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="B330" s="5"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="B331" s="5"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>699</v>
+        <v>625</v>
       </c>
       <c r="B332" s="5"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>700</v>
+        <v>626</v>
       </c>
       <c r="B333" s="5"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>701</v>
+        <v>627</v>
       </c>
       <c r="B334" s="5"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>702</v>
+        <v>628</v>
       </c>
       <c r="B335" s="5"/>
     </row>
@@ -6931,7 +6808,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="B337" s="5"/>
     </row>
@@ -6943,7 +6820,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="B339" s="5"/>
     </row>
@@ -6961,25 +6838,25 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="B342" s="5"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>704</v>
+        <v>630</v>
       </c>
       <c r="B343" s="5"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="B344" s="5"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="B345" s="5"/>
     </row>
@@ -7003,13 +6880,13 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
       <c r="B349" s="5"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>707</v>
+        <v>633</v>
       </c>
       <c r="B350" s="5"/>
     </row>
@@ -7033,7 +6910,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>708</v>
+        <v>634</v>
       </c>
       <c r="B354" s="5"/>
     </row>
@@ -7045,115 +6922,115 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="B356" s="5"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="B357" s="5"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="B358" s="5"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>709</v>
+        <v>635</v>
       </c>
       <c r="B359" s="5"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>710</v>
+        <v>636</v>
       </c>
       <c r="B360" s="5"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>711</v>
+        <v>637</v>
       </c>
       <c r="B361" s="5"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>712</v>
+        <v>638</v>
       </c>
       <c r="B362" s="5"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>713</v>
+        <v>639</v>
       </c>
       <c r="B363" s="5"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="B364" s="5"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>714</v>
+        <v>640</v>
       </c>
       <c r="B365" s="5"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="B366" s="5"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>715</v>
+        <v>641</v>
       </c>
       <c r="B367" s="5"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>716</v>
+        <v>642</v>
       </c>
       <c r="B368" s="5"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>717</v>
+        <v>643</v>
       </c>
       <c r="B369" s="5"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>718</v>
+        <v>644</v>
       </c>
       <c r="B370" s="5"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>719</v>
+        <v>645</v>
       </c>
       <c r="B371" s="5"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>720</v>
+        <v>646</v>
       </c>
       <c r="B372" s="5"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>721</v>
+        <v>647</v>
       </c>
       <c r="B373" s="5"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="B374" s="5"/>
     </row>
@@ -7165,235 +7042,235 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="B376" s="5"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="B377" s="5"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B378" s="5"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B379" s="5"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B380" s="5"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>722</v>
+        <v>648</v>
       </c>
       <c r="B381" s="5"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="B382" s="5"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="B383" s="5"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>723</v>
+        <v>649</v>
       </c>
       <c r="B384" s="5"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="B385" s="5"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="B386" s="5"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="B387" s="5"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="B388" s="5"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="B389" s="5"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>724</v>
+        <v>650</v>
       </c>
       <c r="B390" s="5"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>725</v>
+        <v>651</v>
       </c>
       <c r="B391" s="5"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="B392" s="5"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="B393" s="5"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="B394" s="5"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>726</v>
+        <v>652</v>
       </c>
       <c r="B395" s="5"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="B396" s="5"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="B397" s="5"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>727</v>
+        <v>653</v>
       </c>
       <c r="B398" s="5"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>728</v>
+        <v>654</v>
       </c>
       <c r="B399" s="5"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>729</v>
+        <v>655</v>
       </c>
       <c r="B400" s="5"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>730</v>
+        <v>656</v>
       </c>
       <c r="B401" s="5"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>731</v>
+        <v>657</v>
       </c>
       <c r="B402" s="5"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>732</v>
+        <v>658</v>
       </c>
       <c r="B403" s="5"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="B404" s="5"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>733</v>
+        <v>659</v>
       </c>
       <c r="B405" s="5"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="B406" s="5"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>734</v>
+        <v>660</v>
       </c>
       <c r="B407" s="5"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="B408" s="5"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="B409" s="5"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="B410" s="5"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="B411" s="5"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="B412" s="5"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="B413" s="5"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>735</v>
+        <v>661</v>
       </c>
       <c r="B414" s="5"/>
     </row>
@@ -7405,13 +7282,13 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="B416" s="5"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="B417" s="5"/>
     </row>
@@ -7423,13 +7300,13 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>736</v>
+        <v>662</v>
       </c>
       <c r="B419" s="5"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>737</v>
+        <v>663</v>
       </c>
       <c r="B420" s="5"/>
     </row>
@@ -7459,31 +7336,31 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="B425" s="5"/>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>738</v>
+        <v>664</v>
       </c>
       <c r="B426" s="5"/>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>739</v>
+        <v>665</v>
       </c>
       <c r="B427" s="5"/>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>740</v>
+        <v>666</v>
       </c>
       <c r="B428" s="5"/>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>741</v>
+        <v>667</v>
       </c>
       <c r="B429" s="5"/>
     </row>
@@ -7513,13 +7390,13 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>742</v>
+        <v>668</v>
       </c>
       <c r="B434" s="5"/>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="B435" s="5"/>
     </row>
@@ -7531,7 +7408,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>743</v>
+        <v>669</v>
       </c>
       <c r="B437" s="5"/>
     </row>
@@ -7543,19 +7420,19 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>744</v>
+        <v>670</v>
       </c>
       <c r="B439" s="5"/>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="B440" s="5"/>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="B441" s="5"/>
     </row>
@@ -7567,7 +7444,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>745</v>
+        <v>671</v>
       </c>
       <c r="B443" s="5"/>
     </row>
@@ -7579,133 +7456,133 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="B445" s="5"/>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="B446" s="5"/>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B447" s="5"/>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="B448" s="5"/>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>746</v>
+        <v>672</v>
       </c>
       <c r="B449" s="5"/>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>747</v>
+        <v>673</v>
       </c>
       <c r="B450" s="5"/>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="B451" s="5"/>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="B452" s="5"/>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>748</v>
+        <v>674</v>
       </c>
       <c r="B453" s="5"/>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="B454" s="5"/>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="B455" s="5"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="B456" s="5"/>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="B457" s="5"/>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="B458" s="5"/>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="B459" s="5"/>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>749</v>
+        <v>675</v>
       </c>
       <c r="B460" s="5"/>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="B461" s="5"/>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="B462" s="5"/>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="B463" s="5"/>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="B464" s="5"/>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="B465" s="5"/>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="B466" s="5"/>
     </row>
@@ -7717,13 +7594,13 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="B468" s="5"/>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>751</v>
+        <v>677</v>
       </c>
       <c r="B469" s="5"/>
     </row>
@@ -7735,13 +7612,13 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="B471" s="5"/>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="B472" s="5"/>
     </row>
@@ -7753,7 +7630,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="B474" s="5"/>
     </row>
@@ -7765,175 +7642,175 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>752</v>
+        <v>678</v>
       </c>
       <c r="B476" s="5"/>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>753</v>
+        <v>679</v>
       </c>
       <c r="B477" s="5"/>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>754</v>
+        <v>680</v>
       </c>
       <c r="B478" s="5"/>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="B479" s="5"/>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>755</v>
+        <v>681</v>
       </c>
       <c r="B480" s="5"/>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="B481" s="5"/>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="B482" s="5"/>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="B483" s="5"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>756</v>
+        <v>682</v>
       </c>
       <c r="B484" s="5"/>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="B485" s="5"/>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="B486" s="5"/>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="B487" s="5"/>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="B488" s="5"/>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="B489" s="5"/>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>757</v>
+        <v>683</v>
       </c>
       <c r="B490" s="5"/>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>758</v>
+        <v>684</v>
       </c>
       <c r="B491" s="5"/>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>759</v>
+        <v>685</v>
       </c>
       <c r="B492" s="5"/>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="B493" s="5"/>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>760</v>
+        <v>686</v>
       </c>
       <c r="B494" s="5"/>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="B495" s="5"/>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="B496" s="5"/>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>761</v>
+        <v>687</v>
       </c>
       <c r="B497" s="5"/>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>762</v>
+        <v>688</v>
       </c>
       <c r="B498" s="5"/>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="B499" s="5"/>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>763</v>
+        <v>689</v>
       </c>
       <c r="B500" s="5"/>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="B501" s="5"/>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>764</v>
+        <v>690</v>
       </c>
       <c r="B502" s="5"/>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>765</v>
+        <v>691</v>
       </c>
       <c r="B503" s="5"/>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>766</v>
+        <v>692</v>
       </c>
       <c r="B504" s="5"/>
     </row>
@@ -7945,7 +7822,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>767</v>
+        <v>693</v>
       </c>
       <c r="B506" s="5"/>
     </row>
@@ -7956,12 +7833,12 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>768</v>
+        <v>694</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7971,7 +7848,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -7981,22 +7858,22 @@
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>769</v>
+        <v>695</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>770</v>
+        <v>696</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>771</v>
+        <v>697</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
@@ -8006,12 +7883,12 @@
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>772</v>
+        <v>698</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>773</v>
+        <v>699</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
@@ -8031,7 +7908,7 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>774</v>
+        <v>700</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
@@ -8041,22 +7918,22 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>775</v>
+        <v>701</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
@@ -8066,27 +7943,27 @@
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>776</v>
+        <v>702</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
@@ -8096,27 +7973,27 @@
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>777</v>
+        <v>703</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>778</v>
+        <v>704</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>746</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -8125,7 +8002,7 @@
     <sortCondition ref="C1:C648"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8133,10 +8010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43562C8-3615-F84C-960E-F289A1DF8DB7}">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8144,1159 +8021,696 @@
     <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="48.1640625" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>790</v>
+        <v>713</v>
       </c>
       <c r="B4" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>791</v>
+        <v>714</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>197</v>
       </c>
-      <c r="E8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>198</v>
       </c>
-      <c r="E9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" t="s">
-        <v>556</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
       <c r="B15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>720</v>
+      </c>
+      <c r="B16" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>705</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>706</v>
+      </c>
+      <c r="B19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
         <v>210</v>
       </c>
-      <c r="E15" t="s">
-        <v>557</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>779</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" t="s">
         <v>212</v>
       </c>
-      <c r="E16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" t="s">
-        <v>329</v>
-      </c>
-      <c r="E17" t="s">
-        <v>558</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>780</v>
-      </c>
-      <c r="B18" t="s">
-        <v>559</v>
-      </c>
-      <c r="E18" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>579</v>
-      </c>
-      <c r="B19" t="s">
-        <v>562</v>
-      </c>
-      <c r="E19" t="s">
-        <v>560</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" t="s">
-        <v>786</v>
-      </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>719</v>
+      </c>
+      <c r="B32" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>508</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
         <v>216</v>
       </c>
-      <c r="E21" t="s">
-        <v>549</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>509</v>
+      </c>
+      <c r="B35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" t="s">
         <v>218</v>
       </c>
-      <c r="E22" t="s">
-        <v>561</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>580</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s">
         <v>219</v>
       </c>
-      <c r="E23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>581</v>
-      </c>
-      <c r="B25" t="s">
-        <v>564</v>
-      </c>
-      <c r="E25" t="s">
-        <v>785</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
         <v>221</v>
       </c>
-      <c r="E26" t="s">
-        <v>550</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
         <v>223</v>
       </c>
-      <c r="E27" t="s">
-        <v>312</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>319</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>715</v>
+      </c>
+      <c r="B43" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" t="s">
         <v>224</v>
       </c>
-      <c r="E28" t="s">
-        <v>551</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
         <v>226</v>
       </c>
-      <c r="E29" t="s">
-        <v>563</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>307</v>
-      </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" t="s">
         <v>227</v>
       </c>
-      <c r="E30" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>582</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
         <v>228</v>
       </c>
-      <c r="E31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
         <v>231</v>
       </c>
-      <c r="E32" t="s">
-        <v>225</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>583</v>
-      </c>
-      <c r="B33" t="s">
-        <v>569</v>
-      </c>
-      <c r="E33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>707</v>
+      </c>
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>708</v>
+      </c>
+      <c r="B58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s">
         <v>234</v>
       </c>
-      <c r="E34" t="s">
-        <v>230</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>320</v>
-      </c>
-      <c r="B35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" t="s">
-        <v>565</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" t="s">
-        <v>566</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" t="s">
         <v>240</v>
       </c>
-      <c r="E38" t="s">
-        <v>567</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
         <v>241</v>
       </c>
-      <c r="E39" t="s">
-        <v>552</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>496</v>
+      </c>
+      <c r="B63" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" t="s">
         <v>243</v>
       </c>
-      <c r="E40" t="s">
-        <v>568</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="B41" t="s">
-        <v>793</v>
-      </c>
-      <c r="E41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>313</v>
-      </c>
-      <c r="B42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" t="s">
-        <v>233</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" t="s">
         <v>247</v>
       </c>
-      <c r="E43" t="s">
-        <v>569</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
         <v>249</v>
       </c>
-      <c r="E44" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" t="s">
         <v>250</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>709</v>
+      </c>
+      <c r="B73" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B74" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>497</v>
+      </c>
+      <c r="B76" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>498</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>717</v>
+      </c>
+      <c r="B80" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>723</v>
+      </c>
+      <c r="B81" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>718</v>
+      </c>
+      <c r="B82" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>722</v>
+      </c>
+      <c r="B83" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" t="s">
-        <v>239</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>309</v>
-      </c>
-      <c r="B48" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" t="s">
-        <v>245</v>
-      </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" t="s">
-        <v>256</v>
-      </c>
-      <c r="E49" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>325</v>
-      </c>
-      <c r="B50" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" t="s">
-        <v>570</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" t="s">
-        <v>265</v>
-      </c>
-      <c r="E51" t="s">
-        <v>248</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" t="s">
-        <v>263</v>
-      </c>
-      <c r="E52" t="s">
-        <v>787</v>
-      </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" t="s">
-        <v>266</v>
-      </c>
-      <c r="E53" t="s">
-        <v>571</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="B54" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" t="s">
-        <v>572</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>326</v>
-      </c>
-      <c r="B55" t="s">
-        <v>269</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="B56" t="s">
-        <v>284</v>
-      </c>
-      <c r="E56" t="s">
-        <v>553</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" t="s">
-        <v>260</v>
-      </c>
-      <c r="E57" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" t="s">
-        <v>255</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>327</v>
-      </c>
-      <c r="B59" t="s">
-        <v>270</v>
-      </c>
-      <c r="E59" t="s">
-        <v>573</v>
-      </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" t="s">
-        <v>788</v>
-      </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>546</v>
-      </c>
-      <c r="B61" t="s">
-        <v>555</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>182</v>
-      </c>
-      <c r="B62" t="s">
-        <v>277</v>
-      </c>
-      <c r="E62" t="s">
-        <v>257</v>
-      </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>328</v>
-      </c>
-      <c r="B64" t="s">
-        <v>278</v>
-      </c>
-      <c r="E64" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" t="s">
-        <v>283</v>
-      </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>185</v>
-      </c>
-      <c r="B66" t="s">
-        <v>285</v>
-      </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" t="s">
-        <v>286</v>
-      </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" t="s">
-        <v>289</v>
-      </c>
-      <c r="E68" t="s">
-        <v>262</v>
-      </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B69" t="s">
-        <v>291</v>
-      </c>
-      <c r="E69" t="s">
-        <v>789</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>321</v>
-      </c>
-      <c r="B70" t="s">
-        <v>292</v>
-      </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>783</v>
-      </c>
-      <c r="B71" t="s">
-        <v>296</v>
-      </c>
-      <c r="E71" t="s">
-        <v>264</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>784</v>
-      </c>
-      <c r="B72" t="s">
-        <v>297</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>584</v>
-      </c>
-      <c r="B73" t="s">
-        <v>578</v>
-      </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>547</v>
-      </c>
-      <c r="B74" t="s">
-        <v>293</v>
-      </c>
-      <c r="E74" t="s">
-        <v>267</v>
-      </c>
-      <c r="F74" s="5"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>190</v>
-      </c>
-      <c r="B75" t="s">
-        <v>303</v>
-      </c>
-      <c r="E75" t="s">
-        <v>268</v>
-      </c>
-      <c r="F75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>548</v>
-      </c>
-      <c r="B76" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" t="s">
-        <v>574</v>
-      </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
-        <v>575</v>
-      </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E80" t="s">
-        <v>271</v>
-      </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E81" t="s">
-        <v>272</v>
-      </c>
-      <c r="F81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
-        <v>273</v>
-      </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E83" t="s">
-        <v>274</v>
-      </c>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E84" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E86" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="5"/>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="5"/>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E92" t="s">
-        <v>281</v>
-      </c>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E93" t="s">
-        <v>282</v>
-      </c>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E95" t="s">
-        <v>284</v>
-      </c>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E97" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E98" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E99" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E101" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E105" t="s">
-        <v>294</v>
-      </c>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E106" t="s">
-        <v>295</v>
-      </c>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E107" t="s">
-        <v>577</v>
-      </c>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="5"/>
-    </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E110" t="s">
-        <v>298</v>
-      </c>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E111" t="s">
-        <v>554</v>
-      </c>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E113" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E114" t="s">
-        <v>300</v>
-      </c>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E116" t="s">
-        <v>302</v>
-      </c>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I118" s="5"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I128" s="5"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I132" s="5"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I135" s="5"/>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I138" s="5"/>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I142" s="5"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I147" s="5"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I149" s="5"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I153" s="5"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I155" s="5"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I156" s="5"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I157" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>721</v>
+      </c>
+      <c r="B84" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I91 A93" xr:uid="{2D526F71-3EC5-AB4E-9759-FC84C66B75EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A95" xr:uid="{2D526F71-3EC5-AB4E-9759-FC84C66B75EB}">
       <formula1>Sites</formula1>
     </dataValidation>
   </dataValidations>
@@ -9309,7 +8723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A2BB11-F740-7449-93DE-2DC2DE8CD1D2}">
   <dimension ref="A1:C583"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="114" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="114" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9319,13 +8733,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
